--- a/Load/ontology/script/non-raw_detection_template.xlsx
+++ b/Load/ontology/script/non-raw_detection_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjudkins/ontology/script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjudkins/Documents/GitHub/ApiCommonData/Load/ontology/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794B2686-E6E6-A345-8EB8-6CB6A29EBEC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C519E742-1BC5-924C-AF7E-7849E7D95272}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1063,7 +1063,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1172,7 +1172,7 @@
         <v>15</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f>IF($G3="",$F3,"")
+        <f>TRIM(IF($G3="",$F3,"")
 &amp;IF($G3&lt;&gt;"",$G3,"")
 &amp;IF(AND($K3="LT",H3="ST")," LT-neg ST-pos",
 IF($H3&lt;&gt;""," "&amp;$H3,"")
@@ -1180,15 +1180,15 @@
 &amp;IF($J3&lt;&gt;""," "&amp;$J3,"")
 &amp;IF($I3&lt;&gt;""," "&amp;$I3&amp;"-pos","")
 &amp;IF($K3&lt;&gt;""," "&amp;$K3&amp;"-neg",""))
-&amp;", by "&amp;$C3</f>
+&amp;", by "&amp;$C3)</f>
         <v>Vibrio cholerae, by bacteriology</v>
       </c>
       <c r="N3" s="2" t="str">
-        <f>$E3&amp;" in "&amp;$B3</f>
+        <f>TRIM($E3&amp;" in "&amp;$B3)</f>
         <v>Vibrio in stool</v>
       </c>
       <c r="O3" s="2" t="str">
-        <f>$D3&amp;" in "&amp;$B3</f>
+        <f>TRIM($D3&amp;" in "&amp;$B3)</f>
         <v>Bacteria in stool</v>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
         <v>18</v>
       </c>
       <c r="M4" s="2" t="str">
-        <f t="shared" ref="M4:M12" si="0">IF($G4="",$F4,"")
+        <f t="shared" ref="M4:M12" si="0">TRIM(IF($G4="",$F4,"")
 &amp;IF($G4&lt;&gt;"",$G4,"")
 &amp;IF(AND($K4="LT",H4="ST")," LT-neg ST-pos",
 IF($H4&lt;&gt;""," "&amp;$H4,"")
@@ -1217,15 +1217,15 @@
 &amp;IF($J4&lt;&gt;""," "&amp;$J4,"")
 &amp;IF($I4&lt;&gt;""," "&amp;$I4&amp;"-pos","")
 &amp;IF($K4&lt;&gt;""," "&amp;$K4&amp;"-neg",""))
-&amp;", by "&amp;$C4</f>
+&amp;", by "&amp;$C4)</f>
         <v>Adenovirus, by ELISA</v>
       </c>
       <c r="N4" s="2" t="str">
-        <f>$E4&amp;" in "&amp;$B4</f>
+        <f t="shared" ref="N4:N12" si="1">TRIM($E4&amp;" in "&amp;$B4)</f>
         <v>Adenovirus in blood</v>
       </c>
       <c r="O4" s="2" t="str">
-        <f>$D4&amp;" in "&amp;$B4</f>
+        <f t="shared" ref="O4:O12" si="2">TRIM($D4&amp;" in "&amp;$B4)</f>
         <v>Virus in blood</v>
       </c>
     </row>
@@ -1250,11 +1250,11 @@
         <v>Aeromonas, by TAC</v>
       </c>
       <c r="N5" s="2" t="str">
-        <f>$E5&amp;" in "&amp;$B5</f>
+        <f t="shared" si="1"/>
         <v>Aeromonas in urine</v>
       </c>
       <c r="O5" s="2" t="str">
-        <f>$D5&amp;" in "&amp;$B5</f>
+        <f t="shared" si="2"/>
         <v>Bacteria in urine</v>
       </c>
     </row>
@@ -1279,11 +1279,11 @@
         <v>Schistosoma haematobium, by microscopy</v>
       </c>
       <c r="N6" s="2" t="str">
-        <f>$E6&amp;" in "&amp;$B6</f>
+        <f t="shared" si="1"/>
         <v>Schistosoma in urine</v>
       </c>
       <c r="O6" s="2" t="str">
-        <f>$D6&amp;" in "&amp;$B6</f>
+        <f t="shared" si="2"/>
         <v>Eukaryota in urine</v>
       </c>
     </row>
@@ -1308,11 +1308,11 @@
         <v>Campylobacter, by ELISA</v>
       </c>
       <c r="N7" s="2" t="str">
-        <f>$E7&amp;" in "&amp;$B7</f>
+        <f t="shared" si="1"/>
         <v>Campylobacter in stool</v>
       </c>
       <c r="O7" s="2" t="str">
-        <f>$D7&amp;" in "&amp;$B7</f>
+        <f t="shared" si="2"/>
         <v>Bacteria in stool</v>
       </c>
     </row>
@@ -1337,11 +1337,11 @@
         <v>Norovirus GII, by RT-PCR</v>
       </c>
       <c r="N8" s="2" t="str">
-        <f>$E8&amp;" in "&amp;$B8</f>
+        <f t="shared" si="1"/>
         <v>Norovirus in stool</v>
       </c>
       <c r="O8" s="2" t="str">
-        <f>$D8&amp;" in "&amp;$B8</f>
+        <f t="shared" si="2"/>
         <v>Virus in stool</v>
       </c>
     </row>
@@ -1366,11 +1366,11 @@
         <v>Chikungunya, by SD Bioline IgM ELISA</v>
       </c>
       <c r="N9" s="2" t="str">
-        <f>$E9&amp;" in "&amp;$B9</f>
+        <f t="shared" si="1"/>
         <v>Chikungunya in stool</v>
       </c>
       <c r="O9" s="2" t="str">
-        <f>$D9&amp;" in "&amp;$B9</f>
+        <f t="shared" si="2"/>
         <v>Virus in stool</v>
       </c>
     </row>
@@ -1404,11 +1404,11 @@
         <v>ETEC LT-pos ST-neg, by PCR</v>
       </c>
       <c r="N10" s="2" t="str">
-        <f>$E10&amp;" in "&amp;$B10</f>
+        <f t="shared" si="1"/>
         <v>Escherichia in stool</v>
       </c>
       <c r="O10" s="2" t="str">
-        <f>$D10&amp;" in "&amp;$B10</f>
+        <f t="shared" si="2"/>
         <v>Bacteria in stool</v>
       </c>
     </row>
@@ -1442,11 +1442,11 @@
         <v>ETEC LT-neg ST-pos, by PCR</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f>$E11&amp;" in "&amp;$B11</f>
+        <f t="shared" si="1"/>
         <v>Escherichia in stool</v>
       </c>
       <c r="O11" s="2" t="str">
-        <f>$D11&amp;" in "&amp;$B11</f>
+        <f t="shared" si="2"/>
         <v>Bacteria in stool</v>
       </c>
     </row>
@@ -1483,11 +1483,11 @@
         <v>STEC stx1-pos or stx2-pos, by PCR</v>
       </c>
       <c r="N12" s="2" t="str">
-        <f>$E12&amp;" in "&amp;$B12</f>
+        <f t="shared" si="1"/>
         <v>Escherichia in stool</v>
       </c>
       <c r="O12" s="2" t="str">
-        <f>$D12&amp;" in "&amp;$B12</f>
+        <f t="shared" si="2"/>
         <v>Bacteria in stool</v>
       </c>
     </row>

--- a/Load/ontology/script/non-raw_detection_template.xlsx
+++ b/Load/ontology/script/non-raw_detection_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjudkins/Documents/GitHub/ApiCommonData/Load/ontology/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C519E742-1BC5-924C-AF7E-7849E7D95272}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C3CD75-FADD-FC40-AB7C-D0F16F34E6B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1063,7 +1063,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1174,12 +1174,11 @@
       <c r="M3" s="2" t="str">
         <f>TRIM(IF($G3="",$F3,"")
 &amp;IF($G3&lt;&gt;"",$G3,"")
-&amp;IF(AND($K3="LT",H3="ST")," LT-neg ST-pos",
-IF($H3&lt;&gt;""," "&amp;$H3,"")
+&amp;IF($H3&lt;&gt;""," "&amp;$H3,"")
 &amp;IF(OR($H3="LT",$H3="ST",$H3&lt;&gt;""),"-pos","")
 &amp;IF($J3&lt;&gt;""," "&amp;$J3,"")
 &amp;IF($I3&lt;&gt;""," "&amp;$I3&amp;"-pos","")
-&amp;IF($K3&lt;&gt;""," "&amp;$K3&amp;"-neg",""))
+&amp;IF($K3&lt;&gt;""," "&amp;$K3&amp;"-neg","")
 &amp;", by "&amp;$C3)</f>
         <v>Vibrio cholerae, by bacteriology</v>
       </c>
@@ -1211,12 +1210,11 @@
       <c r="M4" s="2" t="str">
         <f t="shared" ref="M4:M12" si="0">TRIM(IF($G4="",$F4,"")
 &amp;IF($G4&lt;&gt;"",$G4,"")
-&amp;IF(AND($K4="LT",H4="ST")," LT-neg ST-pos",
-IF($H4&lt;&gt;""," "&amp;$H4,"")
+&amp;IF($H4&lt;&gt;""," "&amp;$H4,"")
 &amp;IF(OR($H4="LT",$H4="ST",$H4&lt;&gt;""),"-pos","")
 &amp;IF($J4&lt;&gt;""," "&amp;$J4,"")
 &amp;IF($I4&lt;&gt;""," "&amp;$I4&amp;"-pos","")
-&amp;IF($K4&lt;&gt;""," "&amp;$K4&amp;"-neg",""))
+&amp;IF($K4&lt;&gt;""," "&amp;$K4&amp;"-neg","")
 &amp;", by "&amp;$C4)</f>
         <v>Adenovirus, by ELISA</v>
       </c>
@@ -1258,7 +1256,7 @@
         <v>Bacteria in urine</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1439,7 +1437,7 @@
       </c>
       <c r="M11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>ETEC LT-neg ST-pos, by PCR</v>
+        <v>ETEC ST-pos LT-neg, by PCR</v>
       </c>
       <c r="N11" s="2" t="str">
         <f t="shared" si="1"/>

--- a/Load/ontology/script/non-raw_detection_template.xlsx
+++ b/Load/ontology/script/non-raw_detection_template.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjudkins/Documents/GitHub/ApiCommonData/Load/ontology/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C3CD75-FADD-FC40-AB7C-D0F16F34E6B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCF7D7A-7B01-B742-9280-EADB4414E7FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_detection_template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>variable</t>
   </si>
@@ -31,9 +39,6 @@
     <t>assay type</t>
   </si>
   <si>
-    <t>bacteriology</t>
-  </si>
-  <si>
     <t>website label</t>
   </si>
   <si>
@@ -58,60 +63,9 @@
     <t>website parent</t>
   </si>
   <si>
-    <t>stool</t>
-  </si>
-  <si>
-    <t>Bacteria</t>
-  </si>
-  <si>
-    <t>Vibrio</t>
-  </si>
-  <si>
-    <t>Vibrio cholerae</t>
-  </si>
-  <si>
-    <t>Virus</t>
-  </si>
-  <si>
-    <t>Eukaryota</t>
-  </si>
-  <si>
-    <t>Adenovirus</t>
-  </si>
-  <si>
-    <t>Aeromonas</t>
-  </si>
-  <si>
-    <t>TAC</t>
-  </si>
-  <si>
     <t>E.g.: blood, stool, urine</t>
   </si>
   <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>Campylobacter</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>Norovirus</t>
-  </si>
-  <si>
-    <t>Chikungunya</t>
-  </si>
-  <si>
-    <t>SD Bioline IgM ELISA</t>
-  </si>
-  <si>
-    <t>Escherichia coli</t>
-  </si>
-  <si>
-    <t>Escherichia</t>
-  </si>
-  <si>
     <t>if ETEC, STEC, etc. enter it here</t>
   </si>
   <si>
@@ -119,18 +73,6 @@
   </si>
   <si>
     <t>enterotoxic or virulence factor tested negative</t>
-  </si>
-  <si>
-    <t>ETEC</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>blood</t>
   </si>
   <si>
     <t>Parent term in ClinEpi</t>
@@ -174,37 +116,7 @@
     <t>website grandparent</t>
   </si>
   <si>
-    <t>STEC</t>
-  </si>
-  <si>
-    <t>stx1</t>
-  </si>
-  <si>
-    <t>stx2</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>PCR</t>
-  </si>
-  <si>
-    <t>RT-PCR</t>
-  </si>
-  <si>
-    <t>Norovirus GII</t>
-  </si>
-  <si>
     <t>E.g.: bacteriology, TAC, ELISA</t>
-  </si>
-  <si>
-    <t>Schistosoma haematobium</t>
-  </si>
-  <si>
-    <t>Schistosoma</t>
-  </si>
-  <si>
-    <t>microscopy</t>
   </si>
 </sst>
 </file>
@@ -696,10 +608,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1057,13 +972,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1081,8 +996,13 @@
     <col min="11" max="11" width="22.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="23.33203125" style="1" customWidth="1"/>
     <col min="13" max="14" width="30.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="15" max="16" width="18.33203125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="17.1640625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="3"/>
+    <col min="19" max="19" width="15.5" style="3" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="1"/>
+    <col min="21" max="21" width="27.1640625" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -1096,81 +1016,66 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="M3" s="2" t="str">
         <f>TRIM(IF($G3="",$F3,"")
 &amp;IF($G3&lt;&gt;"",$G3,"")
@@ -1180,33 +1085,18 @@
 &amp;IF($I3&lt;&gt;""," "&amp;$I3&amp;"-pos","")
 &amp;IF($K3&lt;&gt;""," "&amp;$K3&amp;"-neg","")
 &amp;", by "&amp;$C3)</f>
-        <v>Vibrio cholerae, by bacteriology</v>
+        <v>, by</v>
       </c>
       <c r="N3" s="2" t="str">
         <f>TRIM($E3&amp;" in "&amp;$B3)</f>
-        <v>Vibrio in stool</v>
+        <v>in</v>
       </c>
       <c r="O3" s="2" t="str">
         <f>TRIM($D3&amp;" in "&amp;$B3)</f>
-        <v>Bacteria in stool</v>
+        <v>in</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="4" spans="1:15" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M4" s="2" t="str">
         <f t="shared" ref="M4:M12" si="0">TRIM(IF($G4="",$F4,"")
 &amp;IF($G4&lt;&gt;"",$G4,"")
@@ -1216,278 +1106,138 @@
 &amp;IF($I4&lt;&gt;""," "&amp;$I4&amp;"-pos","")
 &amp;IF($K4&lt;&gt;""," "&amp;$K4&amp;"-neg","")
 &amp;", by "&amp;$C4)</f>
-        <v>Adenovirus, by ELISA</v>
+        <v>, by</v>
       </c>
       <c r="N4" s="2" t="str">
         <f t="shared" ref="N4:N12" si="1">TRIM($E4&amp;" in "&amp;$B4)</f>
-        <v>Adenovirus in blood</v>
+        <v>in</v>
       </c>
       <c r="O4" s="2" t="str">
         <f t="shared" ref="O4:O12" si="2">TRIM($D4&amp;" in "&amp;$B4)</f>
-        <v>Virus in blood</v>
+        <v>in</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Aeromonas, by TAC</v>
+        <f>TRIM(IF($G5="",$F5,"")
+&amp;IF($G5&lt;&gt;"",$G5,"")
+&amp;IF($H5&lt;&gt;""," "&amp;$H5,"")
+&amp;IF(OR($H5="LT",$H5="ST",$H5&lt;&gt;""),"-pos","")
+&amp;IF($J5&lt;&gt;""," "&amp;$J5,"")
+&amp;IF($I5&lt;&gt;""," "&amp;$I5&amp;"-pos","")
+&amp;IF($K5&lt;&gt;""," "&amp;$K5&amp;"-neg","")
+&amp;", by "&amp;$C5)</f>
+        <v>, by</v>
       </c>
       <c r="N5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Aeromonas in urine</v>
+        <v>in</v>
       </c>
       <c r="O5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Bacteria in urine</v>
+        <v>in</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>51</v>
-      </c>
+    <row r="6" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="M6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Schistosoma haematobium, by microscopy</v>
+        <v>, by</v>
       </c>
       <c r="N6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Schistosoma in urine</v>
+        <v>in</v>
       </c>
       <c r="O6" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Eukaryota in urine</v>
+        <v>in</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
+    <row r="7" spans="1:15" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Campylobacter, by ELISA</v>
+        <v>, by</v>
       </c>
       <c r="N7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Campylobacter in stool</v>
+        <v>in</v>
       </c>
       <c r="O7" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Bacteria in stool</v>
+        <v>in</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>49</v>
-      </c>
+    <row r="8" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Norovirus GII, by RT-PCR</v>
+        <v>, by</v>
       </c>
       <c r="N8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Norovirus in stool</v>
+        <v>in</v>
       </c>
       <c r="O8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Virus in stool</v>
+        <v>in</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="M9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Chikungunya, by SD Bioline IgM ELISA</v>
+        <v>, by</v>
       </c>
       <c r="N9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Chikungunya in stool</v>
+        <v>in</v>
       </c>
       <c r="O9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Virus in stool</v>
+        <v>in</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="M10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>ETEC LT-pos ST-neg, by PCR</v>
+        <v>, by</v>
       </c>
       <c r="N10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Escherichia in stool</v>
+        <v>in</v>
       </c>
       <c r="O10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Bacteria in stool</v>
+        <v>in</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="M11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>ETEC ST-pos LT-neg, by PCR</v>
+        <v>, by</v>
       </c>
       <c r="N11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Escherichia in stool</v>
+        <v>in</v>
       </c>
       <c r="O11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Bacteria in stool</v>
+        <v>in</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="M12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>STEC stx1-pos or stx2-pos, by PCR</v>
+        <v>, by</v>
       </c>
       <c r="N12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Escherichia in stool</v>
+        <v>in</v>
       </c>
       <c r="O12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Bacteria in stool</v>
-      </c>
+        <v>in</v>
+      </c>
+    </row>
+    <row r="18" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
